--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2532003.116990673</v>
+        <v>2636182.751441744</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>86.7575542320541</v>
       </c>
       <c r="W2" t="n">
-        <v>328.9426795834358</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>26.385164328353</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>150.1158549703645</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,13 +901,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>117.0602861317413</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -956,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>78.78083674901936</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>59.6020838770959</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>59.3599115198021</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>335.6137863334267</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>79.91496114853838</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>162.4269091027078</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>139.8285741207142</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722629</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>75.00788511618086</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,19 +1584,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>93.3890488590942</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>48.13676080754342</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>41.566931371088</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>112.7606860319981</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>119.3168020713735</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>35.56815683447371</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>34.44047701880762</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>156.3923706291104</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>91.66636605273428</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>36.86080948088116</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3032,10 +3034,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>165.3888470662411</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.3062202753132</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695591</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>79.7011924439779</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>108.9501037550976</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>168.982780690001</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>79.70119244397701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>1.799772605716619</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>117.6449484365336</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>55.52079624060473</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1976.204921733553</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4328,16 +4330,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4346,7 +4348,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4355,25 +4357,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883006</v>
+        <v>2668.173035630633</v>
       </c>
       <c r="W2" t="n">
-        <v>2739.810011970445</v>
+        <v>2315.404380360518</v>
       </c>
       <c r="X2" t="n">
-        <v>2366.344253709365</v>
+        <v>1941.938622099438</v>
       </c>
       <c r="Y2" t="n">
-        <v>1976.204921733553</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4395,46 +4397,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>634.7363945304596</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>634.7363945304596</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>484.6197551181239</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>336.7066615357307</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
@@ -4516,22 +4518,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V4" t="n">
-        <v>1548.361223971664</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W4" t="n">
-        <v>1548.361223971664</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="X4" t="n">
-        <v>1396.729047233923</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.936468090393</v>
+        <v>816.3848593606994</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,7 +4564,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4583,34 +4585,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450752</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450752</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4635,19 +4637,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.0549803959802</v>
+        <v>699.4849621798493</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959802</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959802</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959802</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4756,19 +4758,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1363.807466113993</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1109.122977908106</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1109.122977908106</v>
       </c>
       <c r="X7" t="n">
-        <v>530.8475595395104</v>
+        <v>881.133427010089</v>
       </c>
       <c r="Y7" t="n">
-        <v>310.0549803959802</v>
+        <v>881.133427010089</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1514.348043559524</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C8" t="n">
-        <v>1514.348043559524</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D8" t="n">
-        <v>1156.082344952774</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
-        <v>1156.082344952774</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>745.0964401631663</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.72178906653</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796416</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535336</v>
+        <v>2307.521619291001</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559524</v>
+        <v>1917.382287315189</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,7 +4898,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>695.8497105067984</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="C10" t="n">
-        <v>526.9135275788915</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D10" t="n">
-        <v>376.7968881665557</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>376.7968881665557</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>376.7968881665557</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415546</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1615.697475415546</v>
+        <v>1282.770607282056</v>
       </c>
       <c r="W10" t="n">
-        <v>1326.280305378586</v>
+        <v>993.3534372450949</v>
       </c>
       <c r="X10" t="n">
-        <v>1098.290754480568</v>
+        <v>993.3534372450949</v>
       </c>
       <c r="Y10" t="n">
-        <v>877.4981753370381</v>
+        <v>772.5608581015648</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5048,43 +5050,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637308</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1814.11872044489</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2366.028450684177</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.345997432835</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C13" t="n">
-        <v>923.4098145049279</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>773.2931750925922</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>625.380081510199</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>478.4901340122886</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>311.2940347271686</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>169.5822035693667</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,13 +5217,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5230,19 +5232,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.776592304622</v>
+        <v>1339.368993063876</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.787041406604</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.994462263074</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5267,61 +5269,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>251.5626541092265</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249853</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="17">
@@ -5507,40 +5509,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,7 +5551,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="20">
@@ -5738,31 +5740,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1863.561397649904</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1608.876909444017</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934014</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,28 +6001,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2161.135114341634</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1872.059887685832</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1617.375399479945</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1327.958229442984</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>1099.968678544967</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>879.1760994014371</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,16 +6244,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>2231.588527385792</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>2257.062161108198</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>2854.44064873475</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>3482.038612289356</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>4033.948342528643</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>696.7084350851671</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>546.5917956728314</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>398.6787020904383</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>251.7887545925279</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6454,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192548</v>
@@ -6543,22 +6545,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>409.1360811687895</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>904.4616873845483</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2243.991523718104</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2024.390058741045</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.314832085242</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879355</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443774</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="32">
@@ -6701,7 +6703,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6789,7 +6791,7 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3047.734188001556</v>
+        <v>3044.370838283062</v>
       </c>
       <c r="C34" t="n">
-        <v>2878.798005073649</v>
+        <v>2875.434655355155</v>
       </c>
       <c r="D34" t="n">
-        <v>2728.681365661314</v>
+        <v>2875.434655355155</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661314</v>
+        <v>2875.434655355155</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661314</v>
+        <v>2728.544707857245</v>
       </c>
       <c r="G34" t="n">
         <v>2561.485266376194</v>
@@ -6880,28 +6882,28 @@
         <v>4690.833152398594</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328842</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.25592267304</v>
+        <v>4218.903091397697</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467153</v>
+        <v>3964.21860319181</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430193</v>
+        <v>3674.801433154849</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>3446.811882256832</v>
       </c>
       <c r="Y34" t="n">
-        <v>3047.734188001556</v>
+        <v>3226.019303113302</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6934,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,25 +7013,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>984.9192356072721</v>
+        <v>3275.130390493383</v>
       </c>
       <c r="C37" t="n">
-        <v>815.9830526793652</v>
+        <v>3106.194207565477</v>
       </c>
       <c r="D37" t="n">
-        <v>665.8664132670294</v>
+        <v>2956.077568153141</v>
       </c>
       <c r="E37" t="n">
-        <v>517.9533196846363</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F37" t="n">
-        <v>371.0633721867259</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G37" t="n">
-        <v>203.8672729016059</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.70136564882</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072721</v>
+        <v>3456.778855323623</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468472</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7357,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2026.37286802292</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1737.297641367118</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1482.613153161231</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1193.19598312427</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>965.2064322262529</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7423,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>712.2074993348068</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="44">
@@ -7628,46 +7630,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273905</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327652</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048583</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="D46" t="n">
-        <v>444.7013164925226</v>
+        <v>583.3384263047943</v>
       </c>
       <c r="E46" t="n">
-        <v>296.7882229101294</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>149.8982754122191</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806535</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630049</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
   </sheetData>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>6.25795120238466</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>193.1339494774968</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>177.5728945814937</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>184.1427240179491</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>173.4237883572461</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>99.26785128072127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>181.8372934928146</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>191.2691783702295</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>9.131767663158399</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>194.8566322838567</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>111.7546635373312</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.1352912260277321</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>107.2784330767816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>66.73277020259127</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>31.34460909112622</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>48.42266963728724</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>66.73277020259216</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>28.78901421003562</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>110.0033420516641</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>780208.0369357769</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>780208.0369357769</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357769</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>780208.0369357769</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="L2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.2797520054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520051</v>
       </c>
       <c r="N2" t="n">
         <v>645717.2797520051</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520048</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.752076855</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
@@ -26439,7 +26441,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
@@ -26522,43 +26524,43 @@
         <v>-873249.0572457656</v>
       </c>
       <c r="C6" t="n">
+        <v>455495.6884818269</v>
+      </c>
+      <c r="D6" t="n">
         <v>455495.6884818268</v>
       </c>
-      <c r="D6" t="n">
-        <v>455495.688481827</v>
-      </c>
       <c r="E6" t="n">
-        <v>204965.5360438872</v>
+        <v>204965.5360438874</v>
       </c>
       <c r="F6" t="n">
         <v>530377.9978512431</v>
       </c>
       <c r="G6" t="n">
-        <v>530377.9978512429</v>
+        <v>530377.9978512428</v>
       </c>
       <c r="H6" t="n">
-        <v>530377.997851243</v>
+        <v>530377.9978512427</v>
       </c>
       <c r="I6" t="n">
-        <v>530377.997851243</v>
+        <v>530377.9978512428</v>
       </c>
       <c r="J6" t="n">
         <v>312846.7954539654</v>
       </c>
       <c r="K6" t="n">
-        <v>530377.9978512429</v>
+        <v>530377.997851243</v>
       </c>
       <c r="L6" t="n">
-        <v>530377.9978512432</v>
+        <v>530377.997851243</v>
       </c>
       <c r="M6" t="n">
-        <v>445322.9699157311</v>
+        <v>445322.9699157314</v>
       </c>
       <c r="N6" t="n">
-        <v>530377.9978512429</v>
+        <v>530377.997851243</v>
       </c>
       <c r="O6" t="n">
-        <v>530377.9978512431</v>
+        <v>530377.997851243</v>
       </c>
       <c r="P6" t="n">
         <v>530377.9978512427</v>
@@ -26790,28 +26792,28 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>240.9947042380808</v>
       </c>
       <c r="W2" t="n">
-        <v>20.29828913397716</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>119.0358836945782</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,7 +27590,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>75.59380041867266</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>289.8157596099701</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.4571019070343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>226.609754328517</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>166.3497438692351</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>75.30793932002678</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>289.8161395299306</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.598899156320442</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,13 +28070,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>112.3090692031138</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31844,28 +31846,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>290.6810969936916</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>328.903832042181</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>297.1808238847171</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>669.5976799347666</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>235.5705495535876</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32707,34 +32709,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>490.507583235568</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>189.0011860883002</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,25 +33265,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>456.3459017226597</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>460.9249101897659</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33509,10 +33511,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954392</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,13 +33733,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33746,13 +33748,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,10 +33973,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33983,7 +33985,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
@@ -33992,7 +33994,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>328.9038320421819</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963282</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>282.8216163968503</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>162.5000833330452</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597746</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>159.3393849103583</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>188.9220579561594</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>159.3393849103582</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>527.4636460127483</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>92.97430510914316</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>351.9532034556938</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394525</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>318.5044627483007</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>322.3705304098917</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37157,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121058</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37394,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37631,7 +37633,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>23.94570355317107</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2636182.751441744</v>
+        <v>2632170.141427752</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>75.45713216103655</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -718,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>86.7575542320541</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>26.385164328353</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>165.6040273698186</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>282.6988068886408</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>117.0602861317413</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>47.41254713315932</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>59.6020838770959</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>373.3886011363413</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>79.91496114853838</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380459</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>139.8285741207142</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>101.9434035445962</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>93.3890488590942</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>48.13676080754342</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>41.566931371088</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>112.7606860319981</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2526,10 +2526,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
-        <v>35.56815683447371</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>91.66636605273428</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>98.79136808967674</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>36.86080948088116</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>114.5157480654941</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.3888470662411</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>79.7011924439779</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>168.982780690001</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>79.70119244397701</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>117.6449484365336</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1555.338782035317</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1186.376265094905</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4333,13 +4333,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4366,16 +4366,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2668.173035630633</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2315.404380360518</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1941.938622099438</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1941.938622099438</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>634.7363945304596</v>
+        <v>2246.382089998688</v>
       </c>
       <c r="C4" t="n">
-        <v>634.7363945304596</v>
+        <v>2077.445907070781</v>
       </c>
       <c r="D4" t="n">
-        <v>484.6197551181239</v>
+        <v>1927.329267658445</v>
       </c>
       <c r="E4" t="n">
-        <v>336.7066615357307</v>
+        <v>1779.416174076052</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959802</v>
+        <v>1632.526226578142</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>2876.812684870475</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>2876.812684870475</v>
       </c>
       <c r="V4" t="n">
-        <v>1326.59460854119</v>
+        <v>2876.812684870475</v>
       </c>
       <c r="W4" t="n">
-        <v>1037.177438504229</v>
+        <v>2876.812684870475</v>
       </c>
       <c r="X4" t="n">
-        <v>1037.177438504229</v>
+        <v>2648.823133972458</v>
       </c>
       <c r="Y4" t="n">
-        <v>816.3848593606994</v>
+        <v>2428.030554828928</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943748</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>939.4077790033361</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>939.4077790033361</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>939.4077790033361</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4579,10 +4579,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296686</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2630.721789066532</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>699.4849621798493</v>
+        <v>1042.179465010819</v>
       </c>
       <c r="C7" t="n">
-        <v>530.5487792519424</v>
+        <v>873.2432820829119</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396066</v>
+        <v>723.1266426705762</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>575.2135490881831</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>428.3236015902727</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>260.6207649649916</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>114.4035781828494</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1363.807466113993</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1109.122977908106</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1109.122977908106</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="X7" t="n">
-        <v>881.133427010089</v>
+        <v>1444.620508984588</v>
       </c>
       <c r="Y7" t="n">
-        <v>881.133427010089</v>
+        <v>1223.827929841058</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1917.382287315189</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1548.419770374778</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>2307.521619291001</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y8" t="n">
-        <v>1917.382287315189</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>772.5608581015648</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1282.770607282056</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>993.3534372450949</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>993.3534372450949</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>772.5608581015648</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5023,40 +5023,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356194</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2161.135114341634</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1872.059887685832</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1617.375399479945</v>
       </c>
       <c r="W13" t="n">
-        <v>1339.368993063876</v>
+        <v>1327.958229442984</v>
       </c>
       <c r="X13" t="n">
-        <v>1111.379442165859</v>
+        <v>1099.968678544967</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>879.176099401437</v>
       </c>
     </row>
     <row r="14">
@@ -5260,43 +5260,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,7 +5551,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5600,22 +5600,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1169.343099994721</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>948.5505208511906</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1863.561397649904</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1608.876909444017</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1319.459739407057</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1319.459739407057</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1098.667160263527</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>697.5276345711974</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2161.135114341634</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1872.059887685832</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1617.375399479945</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.958229442984</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.968678544967</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>879.1760994014371</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,16 +6217,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6305,22 +6305,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6423,10 +6423,10 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1341.109076706663</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X28" t="n">
-        <v>1113.119525808646</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y28" t="n">
         <v>1113.119525808646</v>
@@ -6445,40 +6445,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6542,25 +6542,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,52 +6597,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>985.7836617409695</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C31" t="n">
-        <v>816.8474788130626</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
@@ -6651,22 +6651,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2264.244907039234</v>
       </c>
       <c r="U31" t="n">
-        <v>2160.315914855604</v>
+        <v>1975.169680383432</v>
       </c>
       <c r="V31" t="n">
-        <v>1905.631426649717</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W31" t="n">
-        <v>1616.214256612757</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X31" t="n">
-        <v>1388.224705714739</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y31" t="n">
-        <v>1167.432126571209</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3044.370838283062</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2875.434655355155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2875.434655355155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.434655355155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.544707857245</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4507.978318053499</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4218.903091397697</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3964.21860319181</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3674.801433154849</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3446.811882256832</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3226.019303113302</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,28 +6949,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3275.130390493383</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3106.194207565477</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2956.077568153141</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3677.571434467153</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3677.571434467153</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3456.778855323623</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,28 +7162,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>614.6217844681063</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2026.37286802292</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1737.297641367118</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1482.613153161231</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1193.19598312427</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>965.2064322262529</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>965.2064322262529</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7496,19 +7496,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1031.260321675049</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>862.3241387471426</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>712.2074993348068</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1433.701365648819</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1212.908786505289</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7727,19 +7727,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>733.4550657171301</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>583.3384263047943</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>115.462046782692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>193.1339494774968</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>177.5728945814937</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>184.1427240179491</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>173.4237883572461</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
-        <v>181.8372934928146</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>194.8566322838567</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>126.9182872993604</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>111.7546635373312</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>102.8897022617942</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1352912260277321</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>66.73277020259127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>48.42266963728724</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>66.73277020259216</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>28.78901421003562</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780208.0369357769</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>780208.0369357769</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="J2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.279752005</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26392,13 +26392,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="C4" t="n">
+        <v>93403.78684820635</v>
+      </c>
+      <c r="D4" t="n">
         <v>93403.78684820633</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26438,7 +26438,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
@@ -26524,46 +26524,46 @@
         <v>-873249.0572457656</v>
       </c>
       <c r="C6" t="n">
-        <v>455495.6884818269</v>
+        <v>455495.6884818273</v>
       </c>
       <c r="D6" t="n">
-        <v>455495.6884818268</v>
+        <v>455495.6884818272</v>
       </c>
       <c r="E6" t="n">
-        <v>204965.5360438874</v>
+        <v>204618.1567895305</v>
       </c>
       <c r="F6" t="n">
-        <v>530377.9978512431</v>
+        <v>530030.6185968863</v>
       </c>
       <c r="G6" t="n">
-        <v>530377.9978512428</v>
+        <v>530030.6185968859</v>
       </c>
       <c r="H6" t="n">
-        <v>530377.9978512427</v>
+        <v>530030.6185968857</v>
       </c>
       <c r="I6" t="n">
-        <v>530377.9978512428</v>
+        <v>530030.6185968856</v>
       </c>
       <c r="J6" t="n">
-        <v>312846.7954539654</v>
+        <v>312499.4161996084</v>
       </c>
       <c r="K6" t="n">
-        <v>530377.997851243</v>
+        <v>530030.6185968859</v>
       </c>
       <c r="L6" t="n">
-        <v>530377.997851243</v>
+        <v>530030.6185968858</v>
       </c>
       <c r="M6" t="n">
-        <v>445322.9699157314</v>
+        <v>444975.5906613742</v>
       </c>
       <c r="N6" t="n">
-        <v>530377.997851243</v>
+        <v>530030.6185968859</v>
       </c>
       <c r="O6" t="n">
-        <v>530377.997851243</v>
+        <v>530030.6185968859</v>
       </c>
       <c r="P6" t="n">
-        <v>530377.9978512427</v>
+        <v>530030.6185968859</v>
       </c>
     </row>
   </sheetData>
@@ -26795,7 +26795,7 @@
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>307.276709502444</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>240.9947042380808</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>119.0358836945782</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>53.9449219063506</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>100.0350347748398</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>289.8157596099701</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>48.93987327667877</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>226.609754328517</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>9.345240527139254</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>289.8161395299306</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>69.12041821276458</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>112.3090692031138</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31837,13 +31837,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473074</v>
@@ -31852,7 +31852,7 @@
         <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>463.959892919255</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437245</v>
@@ -31861,7 +31861,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>328.903832042181</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32320,25 +32320,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>235.5705495535876</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32709,7 +32709,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32788,13 +32788,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33025,7 +33025,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>460.9249101897659</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>466.5925882502527</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34216,22 +34216,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34447,7 +34447,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674332</v>
@@ -35500,7 +35500,7 @@
         <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359217</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992801</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>92.97430510914316</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>322.3705304098917</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_22_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2632170.141427752</v>
+        <v>2633930.671730537</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103655</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>79.76470074482967</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>13.02719212039625</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>165.6040273698186</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282.6988068886408</v>
+        <v>282.6988068886412</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>47.41254713315932</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>373.3886011363413</v>
+        <v>78.78083674902027</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>77.31354443380459</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>101.9434035445962</v>
+        <v>192.7715349547546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695591</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.702514956955</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>241.2831928543109</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>98.79136808967674</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>114.5157480654941</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>27.02919805176109</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>143.3175246302644</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4400,16 +4400,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2246.382089998688</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C4" t="n">
-        <v>2077.445907070781</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D4" t="n">
-        <v>1927.329267658445</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E4" t="n">
-        <v>1779.416174076052</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F4" t="n">
-        <v>1632.526226578142</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.823389952861</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952861</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193524</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>2876.812684870475</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>2876.812684870475</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>2876.812684870475</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>2876.812684870475</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X4" t="n">
-        <v>2648.823133972458</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y4" t="n">
-        <v>2428.030554828928</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="5">
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,7 +4600,7 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
         <v>2630.721789066532</v>
@@ -4637,25 +4637,25 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1042.179465010819</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>873.2432820829119</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>723.1266426705762</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>575.2135490881831</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>428.3236015902727</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>260.6207649649916</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>114.4035781828494</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4761,16 +4761,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1672.610059882606</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1444.620508984588</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1223.827929841058</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,16 +4804,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4840,16 +4840,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
@@ -4880,7 +4880,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>294.7232451715945</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592588</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,13 +5029,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5050,40 +5050,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
@@ -5132,7 +5132,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>697.5276345711973</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C13" t="n">
-        <v>697.5276345711973</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2161.135114341634</v>
+        <v>2002.343823311048</v>
       </c>
       <c r="U13" t="n">
-        <v>1872.059887685832</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V13" t="n">
-        <v>1617.375399479945</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.958229442984</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.968678544967</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y13" t="n">
-        <v>879.176099401437</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803938</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5509,37 +5509,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5652,52 +5652,52 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
         <v>2254.869721166297</v>
@@ -5740,37 +5740,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5889,16 +5889,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5910,28 +5910,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2437.724555511392</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192571</v>
@@ -5995,46 +5995,46 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6126,25 +6126,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,7 +6171,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
         <v>2254.869721166297</v>
@@ -6223,7 +6223,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1333.912104952176</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6445,46 +6445,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.6374272687975</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.244907039234</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.169680383432</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.485192177545</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1431.068022140585</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1203.078471242567</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.2858920990373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6688,34 +6688,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6849,10 +6849,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7086,10 +7086,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>198.027470314254</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.2658363185655</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>115.462046782692</v>
+        <v>24.63391537253366</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>126.9182872993604</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>102.8897022617942</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>138.4949402405078</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>36.51445555167288</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>780208.0369357768</v>
+        <v>780208.0369357767</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780208.0369357767</v>
+        <v>780208.0369357768</v>
       </c>
     </row>
     <row r="15">
@@ -26316,40 +26316,40 @@
         <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914268</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914267</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="L2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="M2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
         <v>645717.279752005</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820638</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26438,7 +26438,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873249.0572457656</v>
+        <v>-873249.0572457655</v>
       </c>
       <c r="C6" t="n">
+        <v>455495.6884818272</v>
+      </c>
+      <c r="D6" t="n">
         <v>455495.6884818273</v>
       </c>
-      <c r="D6" t="n">
-        <v>455495.6884818272</v>
-      </c>
       <c r="E6" t="n">
-        <v>204618.1567895305</v>
+        <v>204930.7981184514</v>
       </c>
       <c r="F6" t="n">
-        <v>530030.6185968863</v>
+        <v>530343.2599258074</v>
       </c>
       <c r="G6" t="n">
-        <v>530030.6185968859</v>
+        <v>530343.2599258071</v>
       </c>
       <c r="H6" t="n">
-        <v>530030.6185968857</v>
+        <v>530343.2599258072</v>
       </c>
       <c r="I6" t="n">
-        <v>530030.6185968856</v>
+        <v>530343.2599258071</v>
       </c>
       <c r="J6" t="n">
-        <v>312499.4161996084</v>
+        <v>312812.0575285294</v>
       </c>
       <c r="K6" t="n">
-        <v>530030.6185968859</v>
+        <v>530343.259925807</v>
       </c>
       <c r="L6" t="n">
-        <v>530030.6185968858</v>
+        <v>530343.2599258071</v>
       </c>
       <c r="M6" t="n">
-        <v>444975.5906613742</v>
+        <v>445288.2319902951</v>
       </c>
       <c r="N6" t="n">
-        <v>530030.6185968859</v>
+        <v>530343.2599258074</v>
       </c>
       <c r="O6" t="n">
-        <v>530030.6185968859</v>
+        <v>530343.2599258072</v>
       </c>
       <c r="P6" t="n">
-        <v>530030.6185968859</v>
+        <v>530343.2599258072</v>
       </c>
     </row>
   </sheetData>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.276709502444</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>274.9183408758533</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>53.9449219063506</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.0350347748398</v>
+        <v>100.0350347748393</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>48.93987327667877</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.345240527139254</v>
+        <v>303.9530049144603</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>69.12041821276458</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31852,10 +31852,10 @@
         <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>463.959892919255</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>400.5469039565762</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33426,7 +33426,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359217</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>257.9506595121318</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
